--- a/biology/Médecine/Phosphoinositide_3-kinase/Phosphoinositide_3-kinase.xlsx
+++ b/biology/Médecine/Phosphoinositide_3-kinase/Phosphoinositide_3-kinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phosphoinositide 3-kinase (PI 3-kinase, PI3K, PI(3)K, or PI-3K) est une enzyme permettant la transformation des phosphoinositides en phosphatidylinositol-3-phosphate.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle possède huit isoformes regroupées en trois classes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle possède huit isoformes regroupées en trois classes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle joue un rôle dans la transduction de signal, intervenant dans le métabolisme, l'angiogénèse et la cancérogenèse[1].
-Des découvertes récentes ont révélé que la phosphoinositide 3-kinase  active la signalisation NF-κB et le copanlisib, un inhibiteur de la phosphoinositide 3-kinase peut bloquer efficacement la double  signalisation PI3K/AKT - NF-κB dans les  cellules activées du lymphome diffus à grandes cellules B , conduisant à une régression tumorale [2]. L'inhibition du phosphoinositide 3-kinase dans le lymphome diffus à grandes cellules B s'est également avérée diminuer l'activité de NF-κB [3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle joue un rôle dans la transduction de signal, intervenant dans le métabolisme, l'angiogénèse et la cancérogenèse.
+Des découvertes récentes ont révélé que la phosphoinositide 3-kinase  active la signalisation NF-κB et le copanlisib, un inhibiteur de la phosphoinositide 3-kinase peut bloquer efficacement la double  signalisation PI3K/AKT - NF-κB dans les  cellules activées du lymphome diffus à grandes cellules B , conduisant à une régression tumorale . L'inhibition du phosphoinositide 3-kinase dans le lymphome diffus à grandes cellules B s'est également avérée diminuer l'activité de NF-κB .
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Inhibiteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idélalisib et le copanlisib sont des inhibiteurs de la phosphoinositide 3-kinase, en cours de test dans les leucémies.
 </t>
